--- a/municipal/ENG/Construction/Permissions granted/Permission granted for construction.xlsx
+++ b/municipal/ENG/Construction/Permissions granted/Permission granted for construction.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\რეზერვი დამთავრებულები მაჩვენ\მშენებლობა ქარ EN\მშენებლობა\2.2 Construction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Permission granted for construction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="10035"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -44,21 +44,12 @@
     <t xml:space="preserve">(Declared Data) </t>
   </si>
   <si>
-    <t>...- Data is Missing or Confidential</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>Tbilisi</t>
-  </si>
-  <si>
     <t>Adjara</t>
   </si>
   <si>
-    <t>Batumi</t>
-  </si>
-  <si>
     <t>Keda Municipality</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>Imereti</t>
   </si>
   <si>
-    <t>Kutaisi</t>
-  </si>
-  <si>
     <t>Tkibuli Municipality</t>
   </si>
   <si>
@@ -185,9 +173,6 @@
     <t>Samegrelo-Zemo Svaneti</t>
   </si>
   <si>
-    <t>Poti</t>
-  </si>
-  <si>
     <t>Abasha Municipality</t>
   </si>
   <si>
@@ -236,9 +221,6 @@
     <t>Kvemo Kartli</t>
   </si>
   <si>
-    <t>Rustavi</t>
-  </si>
-  <si>
     <t>Bolnisi Municipality</t>
   </si>
   <si>
@@ -272,7 +254,22 @@
     <t>Khashuri Municipality</t>
   </si>
   <si>
-    <t>2022                                                             January-June</t>
+    <t>C. Batumi</t>
+  </si>
+  <si>
+    <t>C. Poti</t>
+  </si>
+  <si>
+    <t>C. Kutaisi</t>
+  </si>
+  <si>
+    <t>C. Rustavi</t>
+  </si>
+  <si>
+    <t>C.Tbilisi</t>
+  </si>
+  <si>
+    <t>"…" - Data is Missing or Confidential</t>
   </si>
 </sst>
 </file>
@@ -567,24 +564,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -613,12 +592,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,978 +896,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB51143"/>
+  <dimension ref="A1:AA80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="25" customWidth="1"/>
-    <col min="2" max="27" width="10.5703125" style="25" customWidth="1"/>
-    <col min="28" max="28" width="44.5703125" style="25" customWidth="1"/>
-    <col min="29" max="55" width="3.140625" style="25" customWidth="1"/>
-    <col min="56" max="256" width="9.140625" style="25"/>
-    <col min="257" max="257" width="28.85546875" style="25" customWidth="1"/>
-    <col min="258" max="258" width="11.85546875" style="25" customWidth="1"/>
-    <col min="259" max="260" width="10.42578125" style="25" customWidth="1"/>
-    <col min="261" max="262" width="10.85546875" style="25" customWidth="1"/>
-    <col min="263" max="264" width="10.140625" style="25" customWidth="1"/>
-    <col min="265" max="266" width="10.85546875" style="25" customWidth="1"/>
-    <col min="267" max="268" width="10.140625" style="25" customWidth="1"/>
-    <col min="269" max="278" width="11.42578125" style="25" customWidth="1"/>
-    <col min="279" max="280" width="13" style="25" customWidth="1"/>
-    <col min="281" max="282" width="10.7109375" style="25" customWidth="1"/>
-    <col min="283" max="283" width="12.7109375" style="25" customWidth="1"/>
-    <col min="284" max="512" width="9.140625" style="25"/>
-    <col min="513" max="513" width="28.85546875" style="25" customWidth="1"/>
-    <col min="514" max="514" width="11.85546875" style="25" customWidth="1"/>
-    <col min="515" max="516" width="10.42578125" style="25" customWidth="1"/>
-    <col min="517" max="518" width="10.85546875" style="25" customWidth="1"/>
-    <col min="519" max="520" width="10.140625" style="25" customWidth="1"/>
-    <col min="521" max="522" width="10.85546875" style="25" customWidth="1"/>
-    <col min="523" max="524" width="10.140625" style="25" customWidth="1"/>
-    <col min="525" max="534" width="11.42578125" style="25" customWidth="1"/>
-    <col min="535" max="536" width="13" style="25" customWidth="1"/>
-    <col min="537" max="538" width="10.7109375" style="25" customWidth="1"/>
-    <col min="539" max="539" width="12.7109375" style="25" customWidth="1"/>
-    <col min="540" max="768" width="9.140625" style="25"/>
-    <col min="769" max="769" width="28.85546875" style="25" customWidth="1"/>
-    <col min="770" max="770" width="11.85546875" style="25" customWidth="1"/>
-    <col min="771" max="772" width="10.42578125" style="25" customWidth="1"/>
-    <col min="773" max="774" width="10.85546875" style="25" customWidth="1"/>
-    <col min="775" max="776" width="10.140625" style="25" customWidth="1"/>
-    <col min="777" max="778" width="10.85546875" style="25" customWidth="1"/>
-    <col min="779" max="780" width="10.140625" style="25" customWidth="1"/>
-    <col min="781" max="790" width="11.42578125" style="25" customWidth="1"/>
-    <col min="791" max="792" width="13" style="25" customWidth="1"/>
-    <col min="793" max="794" width="10.7109375" style="25" customWidth="1"/>
-    <col min="795" max="795" width="12.7109375" style="25" customWidth="1"/>
-    <col min="796" max="1024" width="9.140625" style="25"/>
-    <col min="1025" max="1025" width="28.85546875" style="25" customWidth="1"/>
-    <col min="1026" max="1026" width="11.85546875" style="25" customWidth="1"/>
-    <col min="1027" max="1028" width="10.42578125" style="25" customWidth="1"/>
-    <col min="1029" max="1030" width="10.85546875" style="25" customWidth="1"/>
-    <col min="1031" max="1032" width="10.140625" style="25" customWidth="1"/>
-    <col min="1033" max="1034" width="10.85546875" style="25" customWidth="1"/>
-    <col min="1035" max="1036" width="10.140625" style="25" customWidth="1"/>
-    <col min="1037" max="1046" width="11.42578125" style="25" customWidth="1"/>
-    <col min="1047" max="1048" width="13" style="25" customWidth="1"/>
-    <col min="1049" max="1050" width="10.7109375" style="25" customWidth="1"/>
-    <col min="1051" max="1051" width="12.7109375" style="25" customWidth="1"/>
-    <col min="1052" max="1280" width="9.140625" style="25"/>
-    <col min="1281" max="1281" width="28.85546875" style="25" customWidth="1"/>
-    <col min="1282" max="1282" width="11.85546875" style="25" customWidth="1"/>
-    <col min="1283" max="1284" width="10.42578125" style="25" customWidth="1"/>
-    <col min="1285" max="1286" width="10.85546875" style="25" customWidth="1"/>
-    <col min="1287" max="1288" width="10.140625" style="25" customWidth="1"/>
-    <col min="1289" max="1290" width="10.85546875" style="25" customWidth="1"/>
-    <col min="1291" max="1292" width="10.140625" style="25" customWidth="1"/>
-    <col min="1293" max="1302" width="11.42578125" style="25" customWidth="1"/>
-    <col min="1303" max="1304" width="13" style="25" customWidth="1"/>
-    <col min="1305" max="1306" width="10.7109375" style="25" customWidth="1"/>
-    <col min="1307" max="1307" width="12.7109375" style="25" customWidth="1"/>
-    <col min="1308" max="1536" width="9.140625" style="25"/>
-    <col min="1537" max="1537" width="28.85546875" style="25" customWidth="1"/>
-    <col min="1538" max="1538" width="11.85546875" style="25" customWidth="1"/>
-    <col min="1539" max="1540" width="10.42578125" style="25" customWidth="1"/>
-    <col min="1541" max="1542" width="10.85546875" style="25" customWidth="1"/>
-    <col min="1543" max="1544" width="10.140625" style="25" customWidth="1"/>
-    <col min="1545" max="1546" width="10.85546875" style="25" customWidth="1"/>
-    <col min="1547" max="1548" width="10.140625" style="25" customWidth="1"/>
-    <col min="1549" max="1558" width="11.42578125" style="25" customWidth="1"/>
-    <col min="1559" max="1560" width="13" style="25" customWidth="1"/>
-    <col min="1561" max="1562" width="10.7109375" style="25" customWidth="1"/>
-    <col min="1563" max="1563" width="12.7109375" style="25" customWidth="1"/>
-    <col min="1564" max="1792" width="9.140625" style="25"/>
-    <col min="1793" max="1793" width="28.85546875" style="25" customWidth="1"/>
-    <col min="1794" max="1794" width="11.85546875" style="25" customWidth="1"/>
-    <col min="1795" max="1796" width="10.42578125" style="25" customWidth="1"/>
-    <col min="1797" max="1798" width="10.85546875" style="25" customWidth="1"/>
-    <col min="1799" max="1800" width="10.140625" style="25" customWidth="1"/>
-    <col min="1801" max="1802" width="10.85546875" style="25" customWidth="1"/>
-    <col min="1803" max="1804" width="10.140625" style="25" customWidth="1"/>
-    <col min="1805" max="1814" width="11.42578125" style="25" customWidth="1"/>
-    <col min="1815" max="1816" width="13" style="25" customWidth="1"/>
-    <col min="1817" max="1818" width="10.7109375" style="25" customWidth="1"/>
-    <col min="1819" max="1819" width="12.7109375" style="25" customWidth="1"/>
-    <col min="1820" max="2048" width="9.140625" style="25"/>
-    <col min="2049" max="2049" width="28.85546875" style="25" customWidth="1"/>
-    <col min="2050" max="2050" width="11.85546875" style="25" customWidth="1"/>
-    <col min="2051" max="2052" width="10.42578125" style="25" customWidth="1"/>
-    <col min="2053" max="2054" width="10.85546875" style="25" customWidth="1"/>
-    <col min="2055" max="2056" width="10.140625" style="25" customWidth="1"/>
-    <col min="2057" max="2058" width="10.85546875" style="25" customWidth="1"/>
-    <col min="2059" max="2060" width="10.140625" style="25" customWidth="1"/>
-    <col min="2061" max="2070" width="11.42578125" style="25" customWidth="1"/>
-    <col min="2071" max="2072" width="13" style="25" customWidth="1"/>
-    <col min="2073" max="2074" width="10.7109375" style="25" customWidth="1"/>
-    <col min="2075" max="2075" width="12.7109375" style="25" customWidth="1"/>
-    <col min="2076" max="2304" width="9.140625" style="25"/>
-    <col min="2305" max="2305" width="28.85546875" style="25" customWidth="1"/>
-    <col min="2306" max="2306" width="11.85546875" style="25" customWidth="1"/>
-    <col min="2307" max="2308" width="10.42578125" style="25" customWidth="1"/>
-    <col min="2309" max="2310" width="10.85546875" style="25" customWidth="1"/>
-    <col min="2311" max="2312" width="10.140625" style="25" customWidth="1"/>
-    <col min="2313" max="2314" width="10.85546875" style="25" customWidth="1"/>
-    <col min="2315" max="2316" width="10.140625" style="25" customWidth="1"/>
-    <col min="2317" max="2326" width="11.42578125" style="25" customWidth="1"/>
-    <col min="2327" max="2328" width="13" style="25" customWidth="1"/>
-    <col min="2329" max="2330" width="10.7109375" style="25" customWidth="1"/>
-    <col min="2331" max="2331" width="12.7109375" style="25" customWidth="1"/>
-    <col min="2332" max="2560" width="9.140625" style="25"/>
-    <col min="2561" max="2561" width="28.85546875" style="25" customWidth="1"/>
-    <col min="2562" max="2562" width="11.85546875" style="25" customWidth="1"/>
-    <col min="2563" max="2564" width="10.42578125" style="25" customWidth="1"/>
-    <col min="2565" max="2566" width="10.85546875" style="25" customWidth="1"/>
-    <col min="2567" max="2568" width="10.140625" style="25" customWidth="1"/>
-    <col min="2569" max="2570" width="10.85546875" style="25" customWidth="1"/>
-    <col min="2571" max="2572" width="10.140625" style="25" customWidth="1"/>
-    <col min="2573" max="2582" width="11.42578125" style="25" customWidth="1"/>
-    <col min="2583" max="2584" width="13" style="25" customWidth="1"/>
-    <col min="2585" max="2586" width="10.7109375" style="25" customWidth="1"/>
-    <col min="2587" max="2587" width="12.7109375" style="25" customWidth="1"/>
-    <col min="2588" max="2816" width="9.140625" style="25"/>
-    <col min="2817" max="2817" width="28.85546875" style="25" customWidth="1"/>
-    <col min="2818" max="2818" width="11.85546875" style="25" customWidth="1"/>
-    <col min="2819" max="2820" width="10.42578125" style="25" customWidth="1"/>
-    <col min="2821" max="2822" width="10.85546875" style="25" customWidth="1"/>
-    <col min="2823" max="2824" width="10.140625" style="25" customWidth="1"/>
-    <col min="2825" max="2826" width="10.85546875" style="25" customWidth="1"/>
-    <col min="2827" max="2828" width="10.140625" style="25" customWidth="1"/>
-    <col min="2829" max="2838" width="11.42578125" style="25" customWidth="1"/>
-    <col min="2839" max="2840" width="13" style="25" customWidth="1"/>
-    <col min="2841" max="2842" width="10.7109375" style="25" customWidth="1"/>
-    <col min="2843" max="2843" width="12.7109375" style="25" customWidth="1"/>
-    <col min="2844" max="3072" width="9.140625" style="25"/>
-    <col min="3073" max="3073" width="28.85546875" style="25" customWidth="1"/>
-    <col min="3074" max="3074" width="11.85546875" style="25" customWidth="1"/>
-    <col min="3075" max="3076" width="10.42578125" style="25" customWidth="1"/>
-    <col min="3077" max="3078" width="10.85546875" style="25" customWidth="1"/>
-    <col min="3079" max="3080" width="10.140625" style="25" customWidth="1"/>
-    <col min="3081" max="3082" width="10.85546875" style="25" customWidth="1"/>
-    <col min="3083" max="3084" width="10.140625" style="25" customWidth="1"/>
-    <col min="3085" max="3094" width="11.42578125" style="25" customWidth="1"/>
-    <col min="3095" max="3096" width="13" style="25" customWidth="1"/>
-    <col min="3097" max="3098" width="10.7109375" style="25" customWidth="1"/>
-    <col min="3099" max="3099" width="12.7109375" style="25" customWidth="1"/>
-    <col min="3100" max="3328" width="9.140625" style="25"/>
-    <col min="3329" max="3329" width="28.85546875" style="25" customWidth="1"/>
-    <col min="3330" max="3330" width="11.85546875" style="25" customWidth="1"/>
-    <col min="3331" max="3332" width="10.42578125" style="25" customWidth="1"/>
-    <col min="3333" max="3334" width="10.85546875" style="25" customWidth="1"/>
-    <col min="3335" max="3336" width="10.140625" style="25" customWidth="1"/>
-    <col min="3337" max="3338" width="10.85546875" style="25" customWidth="1"/>
-    <col min="3339" max="3340" width="10.140625" style="25" customWidth="1"/>
-    <col min="3341" max="3350" width="11.42578125" style="25" customWidth="1"/>
-    <col min="3351" max="3352" width="13" style="25" customWidth="1"/>
-    <col min="3353" max="3354" width="10.7109375" style="25" customWidth="1"/>
-    <col min="3355" max="3355" width="12.7109375" style="25" customWidth="1"/>
-    <col min="3356" max="3584" width="9.140625" style="25"/>
-    <col min="3585" max="3585" width="28.85546875" style="25" customWidth="1"/>
-    <col min="3586" max="3586" width="11.85546875" style="25" customWidth="1"/>
-    <col min="3587" max="3588" width="10.42578125" style="25" customWidth="1"/>
-    <col min="3589" max="3590" width="10.85546875" style="25" customWidth="1"/>
-    <col min="3591" max="3592" width="10.140625" style="25" customWidth="1"/>
-    <col min="3593" max="3594" width="10.85546875" style="25" customWidth="1"/>
-    <col min="3595" max="3596" width="10.140625" style="25" customWidth="1"/>
-    <col min="3597" max="3606" width="11.42578125" style="25" customWidth="1"/>
-    <col min="3607" max="3608" width="13" style="25" customWidth="1"/>
-    <col min="3609" max="3610" width="10.7109375" style="25" customWidth="1"/>
-    <col min="3611" max="3611" width="12.7109375" style="25" customWidth="1"/>
-    <col min="3612" max="3840" width="9.140625" style="25"/>
-    <col min="3841" max="3841" width="28.85546875" style="25" customWidth="1"/>
-    <col min="3842" max="3842" width="11.85546875" style="25" customWidth="1"/>
-    <col min="3843" max="3844" width="10.42578125" style="25" customWidth="1"/>
-    <col min="3845" max="3846" width="10.85546875" style="25" customWidth="1"/>
-    <col min="3847" max="3848" width="10.140625" style="25" customWidth="1"/>
-    <col min="3849" max="3850" width="10.85546875" style="25" customWidth="1"/>
-    <col min="3851" max="3852" width="10.140625" style="25" customWidth="1"/>
-    <col min="3853" max="3862" width="11.42578125" style="25" customWidth="1"/>
-    <col min="3863" max="3864" width="13" style="25" customWidth="1"/>
-    <col min="3865" max="3866" width="10.7109375" style="25" customWidth="1"/>
-    <col min="3867" max="3867" width="12.7109375" style="25" customWidth="1"/>
-    <col min="3868" max="4096" width="9.140625" style="25"/>
-    <col min="4097" max="4097" width="28.85546875" style="25" customWidth="1"/>
-    <col min="4098" max="4098" width="11.85546875" style="25" customWidth="1"/>
-    <col min="4099" max="4100" width="10.42578125" style="25" customWidth="1"/>
-    <col min="4101" max="4102" width="10.85546875" style="25" customWidth="1"/>
-    <col min="4103" max="4104" width="10.140625" style="25" customWidth="1"/>
-    <col min="4105" max="4106" width="10.85546875" style="25" customWidth="1"/>
-    <col min="4107" max="4108" width="10.140625" style="25" customWidth="1"/>
-    <col min="4109" max="4118" width="11.42578125" style="25" customWidth="1"/>
-    <col min="4119" max="4120" width="13" style="25" customWidth="1"/>
-    <col min="4121" max="4122" width="10.7109375" style="25" customWidth="1"/>
-    <col min="4123" max="4123" width="12.7109375" style="25" customWidth="1"/>
-    <col min="4124" max="4352" width="9.140625" style="25"/>
-    <col min="4353" max="4353" width="28.85546875" style="25" customWidth="1"/>
-    <col min="4354" max="4354" width="11.85546875" style="25" customWidth="1"/>
-    <col min="4355" max="4356" width="10.42578125" style="25" customWidth="1"/>
-    <col min="4357" max="4358" width="10.85546875" style="25" customWidth="1"/>
-    <col min="4359" max="4360" width="10.140625" style="25" customWidth="1"/>
-    <col min="4361" max="4362" width="10.85546875" style="25" customWidth="1"/>
-    <col min="4363" max="4364" width="10.140625" style="25" customWidth="1"/>
-    <col min="4365" max="4374" width="11.42578125" style="25" customWidth="1"/>
-    <col min="4375" max="4376" width="13" style="25" customWidth="1"/>
-    <col min="4377" max="4378" width="10.7109375" style="25" customWidth="1"/>
-    <col min="4379" max="4379" width="12.7109375" style="25" customWidth="1"/>
-    <col min="4380" max="4608" width="9.140625" style="25"/>
-    <col min="4609" max="4609" width="28.85546875" style="25" customWidth="1"/>
-    <col min="4610" max="4610" width="11.85546875" style="25" customWidth="1"/>
-    <col min="4611" max="4612" width="10.42578125" style="25" customWidth="1"/>
-    <col min="4613" max="4614" width="10.85546875" style="25" customWidth="1"/>
-    <col min="4615" max="4616" width="10.140625" style="25" customWidth="1"/>
-    <col min="4617" max="4618" width="10.85546875" style="25" customWidth="1"/>
-    <col min="4619" max="4620" width="10.140625" style="25" customWidth="1"/>
-    <col min="4621" max="4630" width="11.42578125" style="25" customWidth="1"/>
-    <col min="4631" max="4632" width="13" style="25" customWidth="1"/>
-    <col min="4633" max="4634" width="10.7109375" style="25" customWidth="1"/>
-    <col min="4635" max="4635" width="12.7109375" style="25" customWidth="1"/>
-    <col min="4636" max="4864" width="9.140625" style="25"/>
-    <col min="4865" max="4865" width="28.85546875" style="25" customWidth="1"/>
-    <col min="4866" max="4866" width="11.85546875" style="25" customWidth="1"/>
-    <col min="4867" max="4868" width="10.42578125" style="25" customWidth="1"/>
-    <col min="4869" max="4870" width="10.85546875" style="25" customWidth="1"/>
-    <col min="4871" max="4872" width="10.140625" style="25" customWidth="1"/>
-    <col min="4873" max="4874" width="10.85546875" style="25" customWidth="1"/>
-    <col min="4875" max="4876" width="10.140625" style="25" customWidth="1"/>
-    <col min="4877" max="4886" width="11.42578125" style="25" customWidth="1"/>
-    <col min="4887" max="4888" width="13" style="25" customWidth="1"/>
-    <col min="4889" max="4890" width="10.7109375" style="25" customWidth="1"/>
-    <col min="4891" max="4891" width="12.7109375" style="25" customWidth="1"/>
-    <col min="4892" max="5120" width="9.140625" style="25"/>
-    <col min="5121" max="5121" width="28.85546875" style="25" customWidth="1"/>
-    <col min="5122" max="5122" width="11.85546875" style="25" customWidth="1"/>
-    <col min="5123" max="5124" width="10.42578125" style="25" customWidth="1"/>
-    <col min="5125" max="5126" width="10.85546875" style="25" customWidth="1"/>
-    <col min="5127" max="5128" width="10.140625" style="25" customWidth="1"/>
-    <col min="5129" max="5130" width="10.85546875" style="25" customWidth="1"/>
-    <col min="5131" max="5132" width="10.140625" style="25" customWidth="1"/>
-    <col min="5133" max="5142" width="11.42578125" style="25" customWidth="1"/>
-    <col min="5143" max="5144" width="13" style="25" customWidth="1"/>
-    <col min="5145" max="5146" width="10.7109375" style="25" customWidth="1"/>
-    <col min="5147" max="5147" width="12.7109375" style="25" customWidth="1"/>
-    <col min="5148" max="5376" width="9.140625" style="25"/>
-    <col min="5377" max="5377" width="28.85546875" style="25" customWidth="1"/>
-    <col min="5378" max="5378" width="11.85546875" style="25" customWidth="1"/>
-    <col min="5379" max="5380" width="10.42578125" style="25" customWidth="1"/>
-    <col min="5381" max="5382" width="10.85546875" style="25" customWidth="1"/>
-    <col min="5383" max="5384" width="10.140625" style="25" customWidth="1"/>
-    <col min="5385" max="5386" width="10.85546875" style="25" customWidth="1"/>
-    <col min="5387" max="5388" width="10.140625" style="25" customWidth="1"/>
-    <col min="5389" max="5398" width="11.42578125" style="25" customWidth="1"/>
-    <col min="5399" max="5400" width="13" style="25" customWidth="1"/>
-    <col min="5401" max="5402" width="10.7109375" style="25" customWidth="1"/>
-    <col min="5403" max="5403" width="12.7109375" style="25" customWidth="1"/>
-    <col min="5404" max="5632" width="9.140625" style="25"/>
-    <col min="5633" max="5633" width="28.85546875" style="25" customWidth="1"/>
-    <col min="5634" max="5634" width="11.85546875" style="25" customWidth="1"/>
-    <col min="5635" max="5636" width="10.42578125" style="25" customWidth="1"/>
-    <col min="5637" max="5638" width="10.85546875" style="25" customWidth="1"/>
-    <col min="5639" max="5640" width="10.140625" style="25" customWidth="1"/>
-    <col min="5641" max="5642" width="10.85546875" style="25" customWidth="1"/>
-    <col min="5643" max="5644" width="10.140625" style="25" customWidth="1"/>
-    <col min="5645" max="5654" width="11.42578125" style="25" customWidth="1"/>
-    <col min="5655" max="5656" width="13" style="25" customWidth="1"/>
-    <col min="5657" max="5658" width="10.7109375" style="25" customWidth="1"/>
-    <col min="5659" max="5659" width="12.7109375" style="25" customWidth="1"/>
-    <col min="5660" max="5888" width="9.140625" style="25"/>
-    <col min="5889" max="5889" width="28.85546875" style="25" customWidth="1"/>
-    <col min="5890" max="5890" width="11.85546875" style="25" customWidth="1"/>
-    <col min="5891" max="5892" width="10.42578125" style="25" customWidth="1"/>
-    <col min="5893" max="5894" width="10.85546875" style="25" customWidth="1"/>
-    <col min="5895" max="5896" width="10.140625" style="25" customWidth="1"/>
-    <col min="5897" max="5898" width="10.85546875" style="25" customWidth="1"/>
-    <col min="5899" max="5900" width="10.140625" style="25" customWidth="1"/>
-    <col min="5901" max="5910" width="11.42578125" style="25" customWidth="1"/>
-    <col min="5911" max="5912" width="13" style="25" customWidth="1"/>
-    <col min="5913" max="5914" width="10.7109375" style="25" customWidth="1"/>
-    <col min="5915" max="5915" width="12.7109375" style="25" customWidth="1"/>
-    <col min="5916" max="6144" width="9.140625" style="25"/>
-    <col min="6145" max="6145" width="28.85546875" style="25" customWidth="1"/>
-    <col min="6146" max="6146" width="11.85546875" style="25" customWidth="1"/>
-    <col min="6147" max="6148" width="10.42578125" style="25" customWidth="1"/>
-    <col min="6149" max="6150" width="10.85546875" style="25" customWidth="1"/>
-    <col min="6151" max="6152" width="10.140625" style="25" customWidth="1"/>
-    <col min="6153" max="6154" width="10.85546875" style="25" customWidth="1"/>
-    <col min="6155" max="6156" width="10.140625" style="25" customWidth="1"/>
-    <col min="6157" max="6166" width="11.42578125" style="25" customWidth="1"/>
-    <col min="6167" max="6168" width="13" style="25" customWidth="1"/>
-    <col min="6169" max="6170" width="10.7109375" style="25" customWidth="1"/>
-    <col min="6171" max="6171" width="12.7109375" style="25" customWidth="1"/>
-    <col min="6172" max="6400" width="9.140625" style="25"/>
-    <col min="6401" max="6401" width="28.85546875" style="25" customWidth="1"/>
-    <col min="6402" max="6402" width="11.85546875" style="25" customWidth="1"/>
-    <col min="6403" max="6404" width="10.42578125" style="25" customWidth="1"/>
-    <col min="6405" max="6406" width="10.85546875" style="25" customWidth="1"/>
-    <col min="6407" max="6408" width="10.140625" style="25" customWidth="1"/>
-    <col min="6409" max="6410" width="10.85546875" style="25" customWidth="1"/>
-    <col min="6411" max="6412" width="10.140625" style="25" customWidth="1"/>
-    <col min="6413" max="6422" width="11.42578125" style="25" customWidth="1"/>
-    <col min="6423" max="6424" width="13" style="25" customWidth="1"/>
-    <col min="6425" max="6426" width="10.7109375" style="25" customWidth="1"/>
-    <col min="6427" max="6427" width="12.7109375" style="25" customWidth="1"/>
-    <col min="6428" max="6656" width="9.140625" style="25"/>
-    <col min="6657" max="6657" width="28.85546875" style="25" customWidth="1"/>
-    <col min="6658" max="6658" width="11.85546875" style="25" customWidth="1"/>
-    <col min="6659" max="6660" width="10.42578125" style="25" customWidth="1"/>
-    <col min="6661" max="6662" width="10.85546875" style="25" customWidth="1"/>
-    <col min="6663" max="6664" width="10.140625" style="25" customWidth="1"/>
-    <col min="6665" max="6666" width="10.85546875" style="25" customWidth="1"/>
-    <col min="6667" max="6668" width="10.140625" style="25" customWidth="1"/>
-    <col min="6669" max="6678" width="11.42578125" style="25" customWidth="1"/>
-    <col min="6679" max="6680" width="13" style="25" customWidth="1"/>
-    <col min="6681" max="6682" width="10.7109375" style="25" customWidth="1"/>
-    <col min="6683" max="6683" width="12.7109375" style="25" customWidth="1"/>
-    <col min="6684" max="6912" width="9.140625" style="25"/>
-    <col min="6913" max="6913" width="28.85546875" style="25" customWidth="1"/>
-    <col min="6914" max="6914" width="11.85546875" style="25" customWidth="1"/>
-    <col min="6915" max="6916" width="10.42578125" style="25" customWidth="1"/>
-    <col min="6917" max="6918" width="10.85546875" style="25" customWidth="1"/>
-    <col min="6919" max="6920" width="10.140625" style="25" customWidth="1"/>
-    <col min="6921" max="6922" width="10.85546875" style="25" customWidth="1"/>
-    <col min="6923" max="6924" width="10.140625" style="25" customWidth="1"/>
-    <col min="6925" max="6934" width="11.42578125" style="25" customWidth="1"/>
-    <col min="6935" max="6936" width="13" style="25" customWidth="1"/>
-    <col min="6937" max="6938" width="10.7109375" style="25" customWidth="1"/>
-    <col min="6939" max="6939" width="12.7109375" style="25" customWidth="1"/>
-    <col min="6940" max="7168" width="9.140625" style="25"/>
-    <col min="7169" max="7169" width="28.85546875" style="25" customWidth="1"/>
-    <col min="7170" max="7170" width="11.85546875" style="25" customWidth="1"/>
-    <col min="7171" max="7172" width="10.42578125" style="25" customWidth="1"/>
-    <col min="7173" max="7174" width="10.85546875" style="25" customWidth="1"/>
-    <col min="7175" max="7176" width="10.140625" style="25" customWidth="1"/>
-    <col min="7177" max="7178" width="10.85546875" style="25" customWidth="1"/>
-    <col min="7179" max="7180" width="10.140625" style="25" customWidth="1"/>
-    <col min="7181" max="7190" width="11.42578125" style="25" customWidth="1"/>
-    <col min="7191" max="7192" width="13" style="25" customWidth="1"/>
-    <col min="7193" max="7194" width="10.7109375" style="25" customWidth="1"/>
-    <col min="7195" max="7195" width="12.7109375" style="25" customWidth="1"/>
-    <col min="7196" max="7424" width="9.140625" style="25"/>
-    <col min="7425" max="7425" width="28.85546875" style="25" customWidth="1"/>
-    <col min="7426" max="7426" width="11.85546875" style="25" customWidth="1"/>
-    <col min="7427" max="7428" width="10.42578125" style="25" customWidth="1"/>
-    <col min="7429" max="7430" width="10.85546875" style="25" customWidth="1"/>
-    <col min="7431" max="7432" width="10.140625" style="25" customWidth="1"/>
-    <col min="7433" max="7434" width="10.85546875" style="25" customWidth="1"/>
-    <col min="7435" max="7436" width="10.140625" style="25" customWidth="1"/>
-    <col min="7437" max="7446" width="11.42578125" style="25" customWidth="1"/>
-    <col min="7447" max="7448" width="13" style="25" customWidth="1"/>
-    <col min="7449" max="7450" width="10.7109375" style="25" customWidth="1"/>
-    <col min="7451" max="7451" width="12.7109375" style="25" customWidth="1"/>
-    <col min="7452" max="7680" width="9.140625" style="25"/>
-    <col min="7681" max="7681" width="28.85546875" style="25" customWidth="1"/>
-    <col min="7682" max="7682" width="11.85546875" style="25" customWidth="1"/>
-    <col min="7683" max="7684" width="10.42578125" style="25" customWidth="1"/>
-    <col min="7685" max="7686" width="10.85546875" style="25" customWidth="1"/>
-    <col min="7687" max="7688" width="10.140625" style="25" customWidth="1"/>
-    <col min="7689" max="7690" width="10.85546875" style="25" customWidth="1"/>
-    <col min="7691" max="7692" width="10.140625" style="25" customWidth="1"/>
-    <col min="7693" max="7702" width="11.42578125" style="25" customWidth="1"/>
-    <col min="7703" max="7704" width="13" style="25" customWidth="1"/>
-    <col min="7705" max="7706" width="10.7109375" style="25" customWidth="1"/>
-    <col min="7707" max="7707" width="12.7109375" style="25" customWidth="1"/>
-    <col min="7708" max="7936" width="9.140625" style="25"/>
-    <col min="7937" max="7937" width="28.85546875" style="25" customWidth="1"/>
-    <col min="7938" max="7938" width="11.85546875" style="25" customWidth="1"/>
-    <col min="7939" max="7940" width="10.42578125" style="25" customWidth="1"/>
-    <col min="7941" max="7942" width="10.85546875" style="25" customWidth="1"/>
-    <col min="7943" max="7944" width="10.140625" style="25" customWidth="1"/>
-    <col min="7945" max="7946" width="10.85546875" style="25" customWidth="1"/>
-    <col min="7947" max="7948" width="10.140625" style="25" customWidth="1"/>
-    <col min="7949" max="7958" width="11.42578125" style="25" customWidth="1"/>
-    <col min="7959" max="7960" width="13" style="25" customWidth="1"/>
-    <col min="7961" max="7962" width="10.7109375" style="25" customWidth="1"/>
-    <col min="7963" max="7963" width="12.7109375" style="25" customWidth="1"/>
-    <col min="7964" max="8192" width="9.140625" style="25"/>
-    <col min="8193" max="8193" width="28.85546875" style="25" customWidth="1"/>
-    <col min="8194" max="8194" width="11.85546875" style="25" customWidth="1"/>
-    <col min="8195" max="8196" width="10.42578125" style="25" customWidth="1"/>
-    <col min="8197" max="8198" width="10.85546875" style="25" customWidth="1"/>
-    <col min="8199" max="8200" width="10.140625" style="25" customWidth="1"/>
-    <col min="8201" max="8202" width="10.85546875" style="25" customWidth="1"/>
-    <col min="8203" max="8204" width="10.140625" style="25" customWidth="1"/>
-    <col min="8205" max="8214" width="11.42578125" style="25" customWidth="1"/>
-    <col min="8215" max="8216" width="13" style="25" customWidth="1"/>
-    <col min="8217" max="8218" width="10.7109375" style="25" customWidth="1"/>
-    <col min="8219" max="8219" width="12.7109375" style="25" customWidth="1"/>
-    <col min="8220" max="8448" width="9.140625" style="25"/>
-    <col min="8449" max="8449" width="28.85546875" style="25" customWidth="1"/>
-    <col min="8450" max="8450" width="11.85546875" style="25" customWidth="1"/>
-    <col min="8451" max="8452" width="10.42578125" style="25" customWidth="1"/>
-    <col min="8453" max="8454" width="10.85546875" style="25" customWidth="1"/>
-    <col min="8455" max="8456" width="10.140625" style="25" customWidth="1"/>
-    <col min="8457" max="8458" width="10.85546875" style="25" customWidth="1"/>
-    <col min="8459" max="8460" width="10.140625" style="25" customWidth="1"/>
-    <col min="8461" max="8470" width="11.42578125" style="25" customWidth="1"/>
-    <col min="8471" max="8472" width="13" style="25" customWidth="1"/>
-    <col min="8473" max="8474" width="10.7109375" style="25" customWidth="1"/>
-    <col min="8475" max="8475" width="12.7109375" style="25" customWidth="1"/>
-    <col min="8476" max="8704" width="9.140625" style="25"/>
-    <col min="8705" max="8705" width="28.85546875" style="25" customWidth="1"/>
-    <col min="8706" max="8706" width="11.85546875" style="25" customWidth="1"/>
-    <col min="8707" max="8708" width="10.42578125" style="25" customWidth="1"/>
-    <col min="8709" max="8710" width="10.85546875" style="25" customWidth="1"/>
-    <col min="8711" max="8712" width="10.140625" style="25" customWidth="1"/>
-    <col min="8713" max="8714" width="10.85546875" style="25" customWidth="1"/>
-    <col min="8715" max="8716" width="10.140625" style="25" customWidth="1"/>
-    <col min="8717" max="8726" width="11.42578125" style="25" customWidth="1"/>
-    <col min="8727" max="8728" width="13" style="25" customWidth="1"/>
-    <col min="8729" max="8730" width="10.7109375" style="25" customWidth="1"/>
-    <col min="8731" max="8731" width="12.7109375" style="25" customWidth="1"/>
-    <col min="8732" max="8960" width="9.140625" style="25"/>
-    <col min="8961" max="8961" width="28.85546875" style="25" customWidth="1"/>
-    <col min="8962" max="8962" width="11.85546875" style="25" customWidth="1"/>
-    <col min="8963" max="8964" width="10.42578125" style="25" customWidth="1"/>
-    <col min="8965" max="8966" width="10.85546875" style="25" customWidth="1"/>
-    <col min="8967" max="8968" width="10.140625" style="25" customWidth="1"/>
-    <col min="8969" max="8970" width="10.85546875" style="25" customWidth="1"/>
-    <col min="8971" max="8972" width="10.140625" style="25" customWidth="1"/>
-    <col min="8973" max="8982" width="11.42578125" style="25" customWidth="1"/>
-    <col min="8983" max="8984" width="13" style="25" customWidth="1"/>
-    <col min="8985" max="8986" width="10.7109375" style="25" customWidth="1"/>
-    <col min="8987" max="8987" width="12.7109375" style="25" customWidth="1"/>
-    <col min="8988" max="9216" width="9.140625" style="25"/>
-    <col min="9217" max="9217" width="28.85546875" style="25" customWidth="1"/>
-    <col min="9218" max="9218" width="11.85546875" style="25" customWidth="1"/>
-    <col min="9219" max="9220" width="10.42578125" style="25" customWidth="1"/>
-    <col min="9221" max="9222" width="10.85546875" style="25" customWidth="1"/>
-    <col min="9223" max="9224" width="10.140625" style="25" customWidth="1"/>
-    <col min="9225" max="9226" width="10.85546875" style="25" customWidth="1"/>
-    <col min="9227" max="9228" width="10.140625" style="25" customWidth="1"/>
-    <col min="9229" max="9238" width="11.42578125" style="25" customWidth="1"/>
-    <col min="9239" max="9240" width="13" style="25" customWidth="1"/>
-    <col min="9241" max="9242" width="10.7109375" style="25" customWidth="1"/>
-    <col min="9243" max="9243" width="12.7109375" style="25" customWidth="1"/>
-    <col min="9244" max="9472" width="9.140625" style="25"/>
-    <col min="9473" max="9473" width="28.85546875" style="25" customWidth="1"/>
-    <col min="9474" max="9474" width="11.85546875" style="25" customWidth="1"/>
-    <col min="9475" max="9476" width="10.42578125" style="25" customWidth="1"/>
-    <col min="9477" max="9478" width="10.85546875" style="25" customWidth="1"/>
-    <col min="9479" max="9480" width="10.140625" style="25" customWidth="1"/>
-    <col min="9481" max="9482" width="10.85546875" style="25" customWidth="1"/>
-    <col min="9483" max="9484" width="10.140625" style="25" customWidth="1"/>
-    <col min="9485" max="9494" width="11.42578125" style="25" customWidth="1"/>
-    <col min="9495" max="9496" width="13" style="25" customWidth="1"/>
-    <col min="9497" max="9498" width="10.7109375" style="25" customWidth="1"/>
-    <col min="9499" max="9499" width="12.7109375" style="25" customWidth="1"/>
-    <col min="9500" max="9728" width="9.140625" style="25"/>
-    <col min="9729" max="9729" width="28.85546875" style="25" customWidth="1"/>
-    <col min="9730" max="9730" width="11.85546875" style="25" customWidth="1"/>
-    <col min="9731" max="9732" width="10.42578125" style="25" customWidth="1"/>
-    <col min="9733" max="9734" width="10.85546875" style="25" customWidth="1"/>
-    <col min="9735" max="9736" width="10.140625" style="25" customWidth="1"/>
-    <col min="9737" max="9738" width="10.85546875" style="25" customWidth="1"/>
-    <col min="9739" max="9740" width="10.140625" style="25" customWidth="1"/>
-    <col min="9741" max="9750" width="11.42578125" style="25" customWidth="1"/>
-    <col min="9751" max="9752" width="13" style="25" customWidth="1"/>
-    <col min="9753" max="9754" width="10.7109375" style="25" customWidth="1"/>
-    <col min="9755" max="9755" width="12.7109375" style="25" customWidth="1"/>
-    <col min="9756" max="9984" width="9.140625" style="25"/>
-    <col min="9985" max="9985" width="28.85546875" style="25" customWidth="1"/>
-    <col min="9986" max="9986" width="11.85546875" style="25" customWidth="1"/>
-    <col min="9987" max="9988" width="10.42578125" style="25" customWidth="1"/>
-    <col min="9989" max="9990" width="10.85546875" style="25" customWidth="1"/>
-    <col min="9991" max="9992" width="10.140625" style="25" customWidth="1"/>
-    <col min="9993" max="9994" width="10.85546875" style="25" customWidth="1"/>
-    <col min="9995" max="9996" width="10.140625" style="25" customWidth="1"/>
-    <col min="9997" max="10006" width="11.42578125" style="25" customWidth="1"/>
-    <col min="10007" max="10008" width="13" style="25" customWidth="1"/>
-    <col min="10009" max="10010" width="10.7109375" style="25" customWidth="1"/>
-    <col min="10011" max="10011" width="12.7109375" style="25" customWidth="1"/>
-    <col min="10012" max="10240" width="9.140625" style="25"/>
-    <col min="10241" max="10241" width="28.85546875" style="25" customWidth="1"/>
-    <col min="10242" max="10242" width="11.85546875" style="25" customWidth="1"/>
-    <col min="10243" max="10244" width="10.42578125" style="25" customWidth="1"/>
-    <col min="10245" max="10246" width="10.85546875" style="25" customWidth="1"/>
-    <col min="10247" max="10248" width="10.140625" style="25" customWidth="1"/>
-    <col min="10249" max="10250" width="10.85546875" style="25" customWidth="1"/>
-    <col min="10251" max="10252" width="10.140625" style="25" customWidth="1"/>
-    <col min="10253" max="10262" width="11.42578125" style="25" customWidth="1"/>
-    <col min="10263" max="10264" width="13" style="25" customWidth="1"/>
-    <col min="10265" max="10266" width="10.7109375" style="25" customWidth="1"/>
-    <col min="10267" max="10267" width="12.7109375" style="25" customWidth="1"/>
-    <col min="10268" max="10496" width="9.140625" style="25"/>
-    <col min="10497" max="10497" width="28.85546875" style="25" customWidth="1"/>
-    <col min="10498" max="10498" width="11.85546875" style="25" customWidth="1"/>
-    <col min="10499" max="10500" width="10.42578125" style="25" customWidth="1"/>
-    <col min="10501" max="10502" width="10.85546875" style="25" customWidth="1"/>
-    <col min="10503" max="10504" width="10.140625" style="25" customWidth="1"/>
-    <col min="10505" max="10506" width="10.85546875" style="25" customWidth="1"/>
-    <col min="10507" max="10508" width="10.140625" style="25" customWidth="1"/>
-    <col min="10509" max="10518" width="11.42578125" style="25" customWidth="1"/>
-    <col min="10519" max="10520" width="13" style="25" customWidth="1"/>
-    <col min="10521" max="10522" width="10.7109375" style="25" customWidth="1"/>
-    <col min="10523" max="10523" width="12.7109375" style="25" customWidth="1"/>
-    <col min="10524" max="10752" width="9.140625" style="25"/>
-    <col min="10753" max="10753" width="28.85546875" style="25" customWidth="1"/>
-    <col min="10754" max="10754" width="11.85546875" style="25" customWidth="1"/>
-    <col min="10755" max="10756" width="10.42578125" style="25" customWidth="1"/>
-    <col min="10757" max="10758" width="10.85546875" style="25" customWidth="1"/>
-    <col min="10759" max="10760" width="10.140625" style="25" customWidth="1"/>
-    <col min="10761" max="10762" width="10.85546875" style="25" customWidth="1"/>
-    <col min="10763" max="10764" width="10.140625" style="25" customWidth="1"/>
-    <col min="10765" max="10774" width="11.42578125" style="25" customWidth="1"/>
-    <col min="10775" max="10776" width="13" style="25" customWidth="1"/>
-    <col min="10777" max="10778" width="10.7109375" style="25" customWidth="1"/>
-    <col min="10779" max="10779" width="12.7109375" style="25" customWidth="1"/>
-    <col min="10780" max="11008" width="9.140625" style="25"/>
-    <col min="11009" max="11009" width="28.85546875" style="25" customWidth="1"/>
-    <col min="11010" max="11010" width="11.85546875" style="25" customWidth="1"/>
-    <col min="11011" max="11012" width="10.42578125" style="25" customWidth="1"/>
-    <col min="11013" max="11014" width="10.85546875" style="25" customWidth="1"/>
-    <col min="11015" max="11016" width="10.140625" style="25" customWidth="1"/>
-    <col min="11017" max="11018" width="10.85546875" style="25" customWidth="1"/>
-    <col min="11019" max="11020" width="10.140625" style="25" customWidth="1"/>
-    <col min="11021" max="11030" width="11.42578125" style="25" customWidth="1"/>
-    <col min="11031" max="11032" width="13" style="25" customWidth="1"/>
-    <col min="11033" max="11034" width="10.7109375" style="25" customWidth="1"/>
-    <col min="11035" max="11035" width="12.7109375" style="25" customWidth="1"/>
-    <col min="11036" max="11264" width="9.140625" style="25"/>
-    <col min="11265" max="11265" width="28.85546875" style="25" customWidth="1"/>
-    <col min="11266" max="11266" width="11.85546875" style="25" customWidth="1"/>
-    <col min="11267" max="11268" width="10.42578125" style="25" customWidth="1"/>
-    <col min="11269" max="11270" width="10.85546875" style="25" customWidth="1"/>
-    <col min="11271" max="11272" width="10.140625" style="25" customWidth="1"/>
-    <col min="11273" max="11274" width="10.85546875" style="25" customWidth="1"/>
-    <col min="11275" max="11276" width="10.140625" style="25" customWidth="1"/>
-    <col min="11277" max="11286" width="11.42578125" style="25" customWidth="1"/>
-    <col min="11287" max="11288" width="13" style="25" customWidth="1"/>
-    <col min="11289" max="11290" width="10.7109375" style="25" customWidth="1"/>
-    <col min="11291" max="11291" width="12.7109375" style="25" customWidth="1"/>
-    <col min="11292" max="11520" width="9.140625" style="25"/>
-    <col min="11521" max="11521" width="28.85546875" style="25" customWidth="1"/>
-    <col min="11522" max="11522" width="11.85546875" style="25" customWidth="1"/>
-    <col min="11523" max="11524" width="10.42578125" style="25" customWidth="1"/>
-    <col min="11525" max="11526" width="10.85546875" style="25" customWidth="1"/>
-    <col min="11527" max="11528" width="10.140625" style="25" customWidth="1"/>
-    <col min="11529" max="11530" width="10.85546875" style="25" customWidth="1"/>
-    <col min="11531" max="11532" width="10.140625" style="25" customWidth="1"/>
-    <col min="11533" max="11542" width="11.42578125" style="25" customWidth="1"/>
-    <col min="11543" max="11544" width="13" style="25" customWidth="1"/>
-    <col min="11545" max="11546" width="10.7109375" style="25" customWidth="1"/>
-    <col min="11547" max="11547" width="12.7109375" style="25" customWidth="1"/>
-    <col min="11548" max="11776" width="9.140625" style="25"/>
-    <col min="11777" max="11777" width="28.85546875" style="25" customWidth="1"/>
-    <col min="11778" max="11778" width="11.85546875" style="25" customWidth="1"/>
-    <col min="11779" max="11780" width="10.42578125" style="25" customWidth="1"/>
-    <col min="11781" max="11782" width="10.85546875" style="25" customWidth="1"/>
-    <col min="11783" max="11784" width="10.140625" style="25" customWidth="1"/>
-    <col min="11785" max="11786" width="10.85546875" style="25" customWidth="1"/>
-    <col min="11787" max="11788" width="10.140625" style="25" customWidth="1"/>
-    <col min="11789" max="11798" width="11.42578125" style="25" customWidth="1"/>
-    <col min="11799" max="11800" width="13" style="25" customWidth="1"/>
-    <col min="11801" max="11802" width="10.7109375" style="25" customWidth="1"/>
-    <col min="11803" max="11803" width="12.7109375" style="25" customWidth="1"/>
-    <col min="11804" max="12032" width="9.140625" style="25"/>
-    <col min="12033" max="12033" width="28.85546875" style="25" customWidth="1"/>
-    <col min="12034" max="12034" width="11.85546875" style="25" customWidth="1"/>
-    <col min="12035" max="12036" width="10.42578125" style="25" customWidth="1"/>
-    <col min="12037" max="12038" width="10.85546875" style="25" customWidth="1"/>
-    <col min="12039" max="12040" width="10.140625" style="25" customWidth="1"/>
-    <col min="12041" max="12042" width="10.85546875" style="25" customWidth="1"/>
-    <col min="12043" max="12044" width="10.140625" style="25" customWidth="1"/>
-    <col min="12045" max="12054" width="11.42578125" style="25" customWidth="1"/>
-    <col min="12055" max="12056" width="13" style="25" customWidth="1"/>
-    <col min="12057" max="12058" width="10.7109375" style="25" customWidth="1"/>
-    <col min="12059" max="12059" width="12.7109375" style="25" customWidth="1"/>
-    <col min="12060" max="12288" width="9.140625" style="25"/>
-    <col min="12289" max="12289" width="28.85546875" style="25" customWidth="1"/>
-    <col min="12290" max="12290" width="11.85546875" style="25" customWidth="1"/>
-    <col min="12291" max="12292" width="10.42578125" style="25" customWidth="1"/>
-    <col min="12293" max="12294" width="10.85546875" style="25" customWidth="1"/>
-    <col min="12295" max="12296" width="10.140625" style="25" customWidth="1"/>
-    <col min="12297" max="12298" width="10.85546875" style="25" customWidth="1"/>
-    <col min="12299" max="12300" width="10.140625" style="25" customWidth="1"/>
-    <col min="12301" max="12310" width="11.42578125" style="25" customWidth="1"/>
-    <col min="12311" max="12312" width="13" style="25" customWidth="1"/>
-    <col min="12313" max="12314" width="10.7109375" style="25" customWidth="1"/>
-    <col min="12315" max="12315" width="12.7109375" style="25" customWidth="1"/>
-    <col min="12316" max="12544" width="9.140625" style="25"/>
-    <col min="12545" max="12545" width="28.85546875" style="25" customWidth="1"/>
-    <col min="12546" max="12546" width="11.85546875" style="25" customWidth="1"/>
-    <col min="12547" max="12548" width="10.42578125" style="25" customWidth="1"/>
-    <col min="12549" max="12550" width="10.85546875" style="25" customWidth="1"/>
-    <col min="12551" max="12552" width="10.140625" style="25" customWidth="1"/>
-    <col min="12553" max="12554" width="10.85546875" style="25" customWidth="1"/>
-    <col min="12555" max="12556" width="10.140625" style="25" customWidth="1"/>
-    <col min="12557" max="12566" width="11.42578125" style="25" customWidth="1"/>
-    <col min="12567" max="12568" width="13" style="25" customWidth="1"/>
-    <col min="12569" max="12570" width="10.7109375" style="25" customWidth="1"/>
-    <col min="12571" max="12571" width="12.7109375" style="25" customWidth="1"/>
-    <col min="12572" max="12800" width="9.140625" style="25"/>
-    <col min="12801" max="12801" width="28.85546875" style="25" customWidth="1"/>
-    <col min="12802" max="12802" width="11.85546875" style="25" customWidth="1"/>
-    <col min="12803" max="12804" width="10.42578125" style="25" customWidth="1"/>
-    <col min="12805" max="12806" width="10.85546875" style="25" customWidth="1"/>
-    <col min="12807" max="12808" width="10.140625" style="25" customWidth="1"/>
-    <col min="12809" max="12810" width="10.85546875" style="25" customWidth="1"/>
-    <col min="12811" max="12812" width="10.140625" style="25" customWidth="1"/>
-    <col min="12813" max="12822" width="11.42578125" style="25" customWidth="1"/>
-    <col min="12823" max="12824" width="13" style="25" customWidth="1"/>
-    <col min="12825" max="12826" width="10.7109375" style="25" customWidth="1"/>
-    <col min="12827" max="12827" width="12.7109375" style="25" customWidth="1"/>
-    <col min="12828" max="13056" width="9.140625" style="25"/>
-    <col min="13057" max="13057" width="28.85546875" style="25" customWidth="1"/>
-    <col min="13058" max="13058" width="11.85546875" style="25" customWidth="1"/>
-    <col min="13059" max="13060" width="10.42578125" style="25" customWidth="1"/>
-    <col min="13061" max="13062" width="10.85546875" style="25" customWidth="1"/>
-    <col min="13063" max="13064" width="10.140625" style="25" customWidth="1"/>
-    <col min="13065" max="13066" width="10.85546875" style="25" customWidth="1"/>
-    <col min="13067" max="13068" width="10.140625" style="25" customWidth="1"/>
-    <col min="13069" max="13078" width="11.42578125" style="25" customWidth="1"/>
-    <col min="13079" max="13080" width="13" style="25" customWidth="1"/>
-    <col min="13081" max="13082" width="10.7109375" style="25" customWidth="1"/>
-    <col min="13083" max="13083" width="12.7109375" style="25" customWidth="1"/>
-    <col min="13084" max="13312" width="9.140625" style="25"/>
-    <col min="13313" max="13313" width="28.85546875" style="25" customWidth="1"/>
-    <col min="13314" max="13314" width="11.85546875" style="25" customWidth="1"/>
-    <col min="13315" max="13316" width="10.42578125" style="25" customWidth="1"/>
-    <col min="13317" max="13318" width="10.85546875" style="25" customWidth="1"/>
-    <col min="13319" max="13320" width="10.140625" style="25" customWidth="1"/>
-    <col min="13321" max="13322" width="10.85546875" style="25" customWidth="1"/>
-    <col min="13323" max="13324" width="10.140625" style="25" customWidth="1"/>
-    <col min="13325" max="13334" width="11.42578125" style="25" customWidth="1"/>
-    <col min="13335" max="13336" width="13" style="25" customWidth="1"/>
-    <col min="13337" max="13338" width="10.7109375" style="25" customWidth="1"/>
-    <col min="13339" max="13339" width="12.7109375" style="25" customWidth="1"/>
-    <col min="13340" max="13568" width="9.140625" style="25"/>
-    <col min="13569" max="13569" width="28.85546875" style="25" customWidth="1"/>
-    <col min="13570" max="13570" width="11.85546875" style="25" customWidth="1"/>
-    <col min="13571" max="13572" width="10.42578125" style="25" customWidth="1"/>
-    <col min="13573" max="13574" width="10.85546875" style="25" customWidth="1"/>
-    <col min="13575" max="13576" width="10.140625" style="25" customWidth="1"/>
-    <col min="13577" max="13578" width="10.85546875" style="25" customWidth="1"/>
-    <col min="13579" max="13580" width="10.140625" style="25" customWidth="1"/>
-    <col min="13581" max="13590" width="11.42578125" style="25" customWidth="1"/>
-    <col min="13591" max="13592" width="13" style="25" customWidth="1"/>
-    <col min="13593" max="13594" width="10.7109375" style="25" customWidth="1"/>
-    <col min="13595" max="13595" width="12.7109375" style="25" customWidth="1"/>
-    <col min="13596" max="13824" width="9.140625" style="25"/>
-    <col min="13825" max="13825" width="28.85546875" style="25" customWidth="1"/>
-    <col min="13826" max="13826" width="11.85546875" style="25" customWidth="1"/>
-    <col min="13827" max="13828" width="10.42578125" style="25" customWidth="1"/>
-    <col min="13829" max="13830" width="10.85546875" style="25" customWidth="1"/>
-    <col min="13831" max="13832" width="10.140625" style="25" customWidth="1"/>
-    <col min="13833" max="13834" width="10.85546875" style="25" customWidth="1"/>
-    <col min="13835" max="13836" width="10.140625" style="25" customWidth="1"/>
-    <col min="13837" max="13846" width="11.42578125" style="25" customWidth="1"/>
-    <col min="13847" max="13848" width="13" style="25" customWidth="1"/>
-    <col min="13849" max="13850" width="10.7109375" style="25" customWidth="1"/>
-    <col min="13851" max="13851" width="12.7109375" style="25" customWidth="1"/>
-    <col min="13852" max="14080" width="9.140625" style="25"/>
-    <col min="14081" max="14081" width="28.85546875" style="25" customWidth="1"/>
-    <col min="14082" max="14082" width="11.85546875" style="25" customWidth="1"/>
-    <col min="14083" max="14084" width="10.42578125" style="25" customWidth="1"/>
-    <col min="14085" max="14086" width="10.85546875" style="25" customWidth="1"/>
-    <col min="14087" max="14088" width="10.140625" style="25" customWidth="1"/>
-    <col min="14089" max="14090" width="10.85546875" style="25" customWidth="1"/>
-    <col min="14091" max="14092" width="10.140625" style="25" customWidth="1"/>
-    <col min="14093" max="14102" width="11.42578125" style="25" customWidth="1"/>
-    <col min="14103" max="14104" width="13" style="25" customWidth="1"/>
-    <col min="14105" max="14106" width="10.7109375" style="25" customWidth="1"/>
-    <col min="14107" max="14107" width="12.7109375" style="25" customWidth="1"/>
-    <col min="14108" max="14336" width="9.140625" style="25"/>
-    <col min="14337" max="14337" width="28.85546875" style="25" customWidth="1"/>
-    <col min="14338" max="14338" width="11.85546875" style="25" customWidth="1"/>
-    <col min="14339" max="14340" width="10.42578125" style="25" customWidth="1"/>
-    <col min="14341" max="14342" width="10.85546875" style="25" customWidth="1"/>
-    <col min="14343" max="14344" width="10.140625" style="25" customWidth="1"/>
-    <col min="14345" max="14346" width="10.85546875" style="25" customWidth="1"/>
-    <col min="14347" max="14348" width="10.140625" style="25" customWidth="1"/>
-    <col min="14349" max="14358" width="11.42578125" style="25" customWidth="1"/>
-    <col min="14359" max="14360" width="13" style="25" customWidth="1"/>
-    <col min="14361" max="14362" width="10.7109375" style="25" customWidth="1"/>
-    <col min="14363" max="14363" width="12.7109375" style="25" customWidth="1"/>
-    <col min="14364" max="14592" width="9.140625" style="25"/>
-    <col min="14593" max="14593" width="28.85546875" style="25" customWidth="1"/>
-    <col min="14594" max="14594" width="11.85546875" style="25" customWidth="1"/>
-    <col min="14595" max="14596" width="10.42578125" style="25" customWidth="1"/>
-    <col min="14597" max="14598" width="10.85546875" style="25" customWidth="1"/>
-    <col min="14599" max="14600" width="10.140625" style="25" customWidth="1"/>
-    <col min="14601" max="14602" width="10.85546875" style="25" customWidth="1"/>
-    <col min="14603" max="14604" width="10.140625" style="25" customWidth="1"/>
-    <col min="14605" max="14614" width="11.42578125" style="25" customWidth="1"/>
-    <col min="14615" max="14616" width="13" style="25" customWidth="1"/>
-    <col min="14617" max="14618" width="10.7109375" style="25" customWidth="1"/>
-    <col min="14619" max="14619" width="12.7109375" style="25" customWidth="1"/>
-    <col min="14620" max="14848" width="9.140625" style="25"/>
-    <col min="14849" max="14849" width="28.85546875" style="25" customWidth="1"/>
-    <col min="14850" max="14850" width="11.85546875" style="25" customWidth="1"/>
-    <col min="14851" max="14852" width="10.42578125" style="25" customWidth="1"/>
-    <col min="14853" max="14854" width="10.85546875" style="25" customWidth="1"/>
-    <col min="14855" max="14856" width="10.140625" style="25" customWidth="1"/>
-    <col min="14857" max="14858" width="10.85546875" style="25" customWidth="1"/>
-    <col min="14859" max="14860" width="10.140625" style="25" customWidth="1"/>
-    <col min="14861" max="14870" width="11.42578125" style="25" customWidth="1"/>
-    <col min="14871" max="14872" width="13" style="25" customWidth="1"/>
-    <col min="14873" max="14874" width="10.7109375" style="25" customWidth="1"/>
-    <col min="14875" max="14875" width="12.7109375" style="25" customWidth="1"/>
-    <col min="14876" max="15104" width="9.140625" style="25"/>
-    <col min="15105" max="15105" width="28.85546875" style="25" customWidth="1"/>
-    <col min="15106" max="15106" width="11.85546875" style="25" customWidth="1"/>
-    <col min="15107" max="15108" width="10.42578125" style="25" customWidth="1"/>
-    <col min="15109" max="15110" width="10.85546875" style="25" customWidth="1"/>
-    <col min="15111" max="15112" width="10.140625" style="25" customWidth="1"/>
-    <col min="15113" max="15114" width="10.85546875" style="25" customWidth="1"/>
-    <col min="15115" max="15116" width="10.140625" style="25" customWidth="1"/>
-    <col min="15117" max="15126" width="11.42578125" style="25" customWidth="1"/>
-    <col min="15127" max="15128" width="13" style="25" customWidth="1"/>
-    <col min="15129" max="15130" width="10.7109375" style="25" customWidth="1"/>
-    <col min="15131" max="15131" width="12.7109375" style="25" customWidth="1"/>
-    <col min="15132" max="15360" width="9.140625" style="25"/>
-    <col min="15361" max="15361" width="28.85546875" style="25" customWidth="1"/>
-    <col min="15362" max="15362" width="11.85546875" style="25" customWidth="1"/>
-    <col min="15363" max="15364" width="10.42578125" style="25" customWidth="1"/>
-    <col min="15365" max="15366" width="10.85546875" style="25" customWidth="1"/>
-    <col min="15367" max="15368" width="10.140625" style="25" customWidth="1"/>
-    <col min="15369" max="15370" width="10.85546875" style="25" customWidth="1"/>
-    <col min="15371" max="15372" width="10.140625" style="25" customWidth="1"/>
-    <col min="15373" max="15382" width="11.42578125" style="25" customWidth="1"/>
-    <col min="15383" max="15384" width="13" style="25" customWidth="1"/>
-    <col min="15385" max="15386" width="10.7109375" style="25" customWidth="1"/>
-    <col min="15387" max="15387" width="12.7109375" style="25" customWidth="1"/>
-    <col min="15388" max="15616" width="9.140625" style="25"/>
-    <col min="15617" max="15617" width="28.85546875" style="25" customWidth="1"/>
-    <col min="15618" max="15618" width="11.85546875" style="25" customWidth="1"/>
-    <col min="15619" max="15620" width="10.42578125" style="25" customWidth="1"/>
-    <col min="15621" max="15622" width="10.85546875" style="25" customWidth="1"/>
-    <col min="15623" max="15624" width="10.140625" style="25" customWidth="1"/>
-    <col min="15625" max="15626" width="10.85546875" style="25" customWidth="1"/>
-    <col min="15627" max="15628" width="10.140625" style="25" customWidth="1"/>
-    <col min="15629" max="15638" width="11.42578125" style="25" customWidth="1"/>
-    <col min="15639" max="15640" width="13" style="25" customWidth="1"/>
-    <col min="15641" max="15642" width="10.7109375" style="25" customWidth="1"/>
-    <col min="15643" max="15643" width="12.7109375" style="25" customWidth="1"/>
-    <col min="15644" max="15872" width="9.140625" style="25"/>
-    <col min="15873" max="15873" width="28.85546875" style="25" customWidth="1"/>
-    <col min="15874" max="15874" width="11.85546875" style="25" customWidth="1"/>
-    <col min="15875" max="15876" width="10.42578125" style="25" customWidth="1"/>
-    <col min="15877" max="15878" width="10.85546875" style="25" customWidth="1"/>
-    <col min="15879" max="15880" width="10.140625" style="25" customWidth="1"/>
-    <col min="15881" max="15882" width="10.85546875" style="25" customWidth="1"/>
-    <col min="15883" max="15884" width="10.140625" style="25" customWidth="1"/>
-    <col min="15885" max="15894" width="11.42578125" style="25" customWidth="1"/>
-    <col min="15895" max="15896" width="13" style="25" customWidth="1"/>
-    <col min="15897" max="15898" width="10.7109375" style="25" customWidth="1"/>
-    <col min="15899" max="15899" width="12.7109375" style="25" customWidth="1"/>
-    <col min="15900" max="16128" width="9.140625" style="25"/>
-    <col min="16129" max="16129" width="28.85546875" style="25" customWidth="1"/>
-    <col min="16130" max="16130" width="11.85546875" style="25" customWidth="1"/>
-    <col min="16131" max="16132" width="10.42578125" style="25" customWidth="1"/>
-    <col min="16133" max="16134" width="10.85546875" style="25" customWidth="1"/>
-    <col min="16135" max="16136" width="10.140625" style="25" customWidth="1"/>
-    <col min="16137" max="16138" width="10.85546875" style="25" customWidth="1"/>
-    <col min="16139" max="16140" width="10.140625" style="25" customWidth="1"/>
-    <col min="16141" max="16150" width="11.42578125" style="25" customWidth="1"/>
-    <col min="16151" max="16152" width="13" style="25" customWidth="1"/>
-    <col min="16153" max="16154" width="10.7109375" style="25" customWidth="1"/>
-    <col min="16155" max="16155" width="12.7109375" style="25" customWidth="1"/>
-    <col min="16156" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="35.85546875" style="19" customWidth="1"/>
+    <col min="2" max="27" width="10.5703125" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:27" s="14" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-    </row>
-    <row r="2" spans="1:28" s="24" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+    </row>
+    <row r="2" spans="1:27" s="18" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-    </row>
-    <row r="3" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+    </row>
+    <row r="3" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="29">
         <v>2010</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="17">
+      <c r="C3" s="30"/>
+      <c r="D3" s="34">
         <v>2011</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="17">
+      <c r="E3" s="30"/>
+      <c r="F3" s="34">
         <v>2012</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13">
+      <c r="G3" s="30"/>
+      <c r="H3" s="29">
         <v>2013</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13">
+      <c r="I3" s="30"/>
+      <c r="J3" s="29">
         <v>2014</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="13">
+      <c r="K3" s="30"/>
+      <c r="L3" s="29">
         <v>2015</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13">
+      <c r="M3" s="30"/>
+      <c r="N3" s="29">
         <v>2016</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="13">
+      <c r="O3" s="30"/>
+      <c r="P3" s="29">
         <v>2017</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="13">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="29">
         <v>2018</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="13">
+      <c r="S3" s="30"/>
+      <c r="T3" s="29">
         <v>2019</v>
       </c>
-      <c r="U3" s="14"/>
-      <c r="V3" s="13">
+      <c r="U3" s="30"/>
+      <c r="V3" s="29">
         <v>2020</v>
       </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="13">
+      <c r="W3" s="30"/>
+      <c r="X3" s="29">
         <v>2021</v>
       </c>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA3" s="18"/>
-    </row>
-    <row r="4" spans="1:28" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="26" t="s">
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="34">
+        <v>2022</v>
+      </c>
+      <c r="AA3" s="35"/>
+    </row>
+    <row r="4" spans="1:27" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="S4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="26" t="s">
+      <c r="T4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="U4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="26" t="s">
+      <c r="V4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="27" t="s">
+      <c r="W4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="26" t="s">
+      <c r="X4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="27" t="s">
+      <c r="Y4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Z4" s="26" t="s">
+      <c r="Z4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="28" t="s">
+      <c r="AA4" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>7</v>
+    <row r="5" spans="1:27" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>6635</v>
@@ -1945,16 +1186,15 @@
         <v>7434470</v>
       </c>
       <c r="Z5" s="1">
-        <v>5086</v>
+        <v>10822</v>
       </c>
       <c r="AA5" s="4">
-        <v>3187788</v>
-      </c>
-      <c r="AB5" s="29"/>
-    </row>
-    <row r="6" spans="1:28" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>8</v>
+        <v>7421907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="B6" s="1">
         <v>3859</v>
@@ -2029,16 +1269,15 @@
         <v>5041555</v>
       </c>
       <c r="Z6" s="1">
-        <v>2649</v>
+        <v>5616</v>
       </c>
       <c r="AA6" s="4">
-        <v>2022527</v>
-      </c>
-      <c r="AB6" s="29"/>
-    </row>
-    <row r="7" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>9</v>
+        <v>4862823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>522</v>
@@ -2113,16 +1352,15 @@
         <v>573586</v>
       </c>
       <c r="Z7" s="1">
-        <v>287</v>
+        <v>651</v>
       </c>
       <c r="AA7" s="4">
-        <v>248124</v>
-      </c>
-      <c r="AB7" s="29"/>
-    </row>
-    <row r="8" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>10</v>
+        <v>701689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B8" s="5">
         <v>321</v>
@@ -2197,16 +1435,15 @@
         <v>456572</v>
       </c>
       <c r="Z8" s="5">
-        <v>181</v>
+        <v>378</v>
       </c>
       <c r="AA8" s="8">
-        <v>206372</v>
-      </c>
-      <c r="AB8" s="32"/>
-    </row>
-    <row r="9" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>11</v>
+        <v>555756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>1</v>
@@ -2281,16 +1518,15 @@
         <v>1256</v>
       </c>
       <c r="Z9" s="5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AA9" s="8">
-        <v>1977</v>
-      </c>
-      <c r="AB9" s="32"/>
-    </row>
-    <row r="10" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>12</v>
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>34</v>
@@ -2365,16 +1601,15 @@
         <v>63543</v>
       </c>
       <c r="Z10" s="5">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="AA10" s="8">
-        <v>23941</v>
-      </c>
-      <c r="AB10" s="32"/>
-    </row>
-    <row r="11" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>13</v>
+        <v>91361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>4</v>
@@ -2454,11 +1689,10 @@
       <c r="AA11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AB11" s="32"/>
-    </row>
-    <row r="12" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>14</v>
+    </row>
+    <row r="12" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>159</v>
@@ -2533,16 +1767,15 @@
         <v>39574</v>
       </c>
       <c r="Z12" s="5">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AA12" s="8">
-        <v>10457</v>
-      </c>
-      <c r="AB12" s="32"/>
-    </row>
-    <row r="13" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>15</v>
+        <v>30795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>4</v>
@@ -2617,16 +1850,15 @@
         <v>12485</v>
       </c>
       <c r="Z13" s="5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AA13" s="8">
-        <v>5377</v>
-      </c>
-      <c r="AB13" s="32"/>
-    </row>
-    <row r="14" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
-        <v>16</v>
+        <v>19232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>92</v>
@@ -2701,16 +1933,15 @@
         <v>53764</v>
       </c>
       <c r="Z14" s="1">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="AA14" s="4">
-        <v>15055</v>
-      </c>
-      <c r="AB14" s="29"/>
-    </row>
-    <row r="15" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
-        <v>17</v>
+        <v>34520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="5">
         <v>20</v>
@@ -2785,16 +2016,15 @@
         <v>13422</v>
       </c>
       <c r="Z15" s="5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AA15" s="8">
-        <v>2871</v>
-      </c>
-      <c r="AB15" s="32"/>
-    </row>
-    <row r="16" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
-        <v>18</v>
+        <v>8959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>68</v>
@@ -2869,16 +2099,15 @@
         <v>36844</v>
       </c>
       <c r="Z16" s="5">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="AA16" s="8">
-        <v>10827</v>
-      </c>
-      <c r="AB16" s="32"/>
-    </row>
-    <row r="17" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
-        <v>19</v>
+        <v>21212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>4</v>
@@ -2953,16 +2182,15 @@
         <v>3498</v>
       </c>
       <c r="Z17" s="5">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AA17" s="8">
-        <v>1357</v>
-      </c>
-      <c r="AB17" s="32"/>
-    </row>
-    <row r="18" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>20</v>
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>560</v>
@@ -3037,16 +2265,15 @@
         <v>389273</v>
       </c>
       <c r="Z18" s="1">
-        <v>337</v>
+        <v>688</v>
       </c>
       <c r="AA18" s="4">
-        <v>120993</v>
-      </c>
-      <c r="AB18" s="29"/>
-    </row>
-    <row r="19" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>21</v>
+        <v>236211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="B19" s="5">
         <v>329</v>
@@ -3121,16 +2348,15 @@
         <v>235092</v>
       </c>
       <c r="Z19" s="5">
-        <v>171</v>
+        <v>296</v>
       </c>
       <c r="AA19" s="8">
-        <v>93634</v>
-      </c>
-      <c r="AB19" s="32"/>
-    </row>
-    <row r="20" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
-        <v>25</v>
+        <v>167582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="5">
         <v>29</v>
@@ -3205,16 +2431,15 @@
         <v>5224</v>
       </c>
       <c r="Z20" s="5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AA20" s="8">
-        <v>1137</v>
-      </c>
-      <c r="AB20" s="32"/>
-    </row>
-    <row r="21" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
-        <v>26</v>
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="5">
         <v>5</v>
@@ -3289,16 +2514,15 @@
         <v>4121</v>
       </c>
       <c r="Z21" s="5">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="AA21" s="8">
-        <v>3829</v>
-      </c>
-      <c r="AB21" s="32"/>
-    </row>
-    <row r="22" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
-        <v>27</v>
+        <v>5747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="B22" s="5">
         <v>8</v>
@@ -3373,16 +2597,15 @@
         <v>21990</v>
       </c>
       <c r="Z22" s="5">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="AA22" s="8">
-        <v>3565</v>
-      </c>
-      <c r="AB22" s="32"/>
-    </row>
-    <row r="23" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
-        <v>28</v>
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="B23" s="5">
         <v>14</v>
@@ -3457,16 +2680,15 @@
         <v>8613</v>
       </c>
       <c r="Z23" s="5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AA23" s="8">
-        <v>2132</v>
-      </c>
-      <c r="AB23" s="32"/>
-    </row>
-    <row r="24" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
-        <v>29</v>
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="B24" s="5">
         <v>59</v>
@@ -3541,16 +2763,15 @@
         <v>9216</v>
       </c>
       <c r="Z24" s="5">
+        <v>37</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="AA24" s="8">
-        <v>5676</v>
-      </c>
-      <c r="AB24" s="32"/>
-    </row>
-    <row r="25" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
-        <v>30</v>
       </c>
       <c r="B25" s="5">
         <v>19</v>
@@ -3625,16 +2846,15 @@
         <v>5449</v>
       </c>
       <c r="Z25" s="5">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="AA25" s="8">
-        <v>3406</v>
-      </c>
-      <c r="AB25" s="32"/>
-    </row>
-    <row r="26" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
-        <v>22</v>
+        <v>7425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="B26" s="5">
         <v>4</v>
@@ -3709,16 +2929,15 @@
         <v>3930</v>
       </c>
       <c r="Z26" s="5">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="AA26" s="8">
-        <v>1057</v>
-      </c>
-      <c r="AB26" s="32"/>
-    </row>
-    <row r="27" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
-        <v>23</v>
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="B27" s="5">
         <v>64</v>
@@ -3793,16 +3012,15 @@
         <v>4128</v>
       </c>
       <c r="Z27" s="5">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="AA27" s="8">
-        <v>2703</v>
-      </c>
-      <c r="AB27" s="32"/>
-    </row>
-    <row r="28" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
-        <v>24</v>
+        <v>16942</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="B28" s="5">
         <v>2</v>
@@ -3877,16 +3095,15 @@
         <v>4799</v>
       </c>
       <c r="Z28" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AA28" s="8">
-        <v>1818</v>
-      </c>
-      <c r="AB28" s="32"/>
-    </row>
-    <row r="29" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
-        <v>31</v>
+        <v>6314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="B29" s="5">
         <v>14</v>
@@ -3961,16 +3178,15 @@
         <v>84653</v>
       </c>
       <c r="Z29" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AA29" s="8">
-        <v>1438</v>
-      </c>
-      <c r="AB29" s="32"/>
-    </row>
-    <row r="30" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
-        <v>32</v>
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="B30" s="5">
         <v>13</v>
@@ -4045,16 +3261,15 @@
         <v>2058</v>
       </c>
       <c r="Z30" s="5">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="AA30" s="8">
-        <v>598</v>
-      </c>
-      <c r="AB30" s="32"/>
-    </row>
-    <row r="31" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
-        <v>33</v>
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>281</v>
@@ -4129,16 +3344,15 @@
         <v>186083</v>
       </c>
       <c r="Z31" s="1">
-        <v>287</v>
+        <v>573</v>
       </c>
       <c r="AA31" s="4">
-        <v>141801</v>
-      </c>
-      <c r="AB31" s="29"/>
-    </row>
-    <row r="32" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32" t="s">
-        <v>34</v>
+        <v>241934</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="B32" s="5">
         <v>12</v>
@@ -4213,16 +3427,15 @@
         <v>10369</v>
       </c>
       <c r="Z32" s="5">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AA32" s="8">
-        <v>7018</v>
-      </c>
-      <c r="AB32" s="32"/>
-    </row>
-    <row r="33" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
-        <v>35</v>
+        <v>12781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="B33" s="5">
         <v>77</v>
@@ -4297,16 +3510,15 @@
         <v>47640</v>
       </c>
       <c r="Z33" s="5">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AA33" s="8">
-        <v>35757</v>
-      </c>
-      <c r="AB33" s="32"/>
-    </row>
-    <row r="34" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="32" t="s">
-        <v>36</v>
+        <v>64535</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="B34" s="5">
         <v>6</v>
@@ -4381,16 +3593,15 @@
         <v>3679</v>
       </c>
       <c r="Z34" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AA34" s="8">
-        <v>3646</v>
-      </c>
-      <c r="AB34" s="32"/>
-    </row>
-    <row r="35" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="32" t="s">
-        <v>37</v>
+        <v>6086</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="B35" s="5">
         <v>98</v>
@@ -4465,16 +3676,15 @@
         <v>13772</v>
       </c>
       <c r="Z35" s="5">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AA35" s="8">
-        <v>32278</v>
-      </c>
-      <c r="AB35" s="32"/>
-    </row>
-    <row r="36" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="32" t="s">
-        <v>38</v>
+        <v>45074</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="B36" s="5">
         <v>25</v>
@@ -4549,16 +3759,15 @@
         <v>14247</v>
       </c>
       <c r="Z36" s="5">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="AA36" s="8">
-        <v>18842</v>
-      </c>
-      <c r="AB36" s="32"/>
-    </row>
-    <row r="37" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="32" t="s">
-        <v>39</v>
+        <v>32480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="B37" s="5">
         <v>13</v>
@@ -4633,16 +3842,15 @@
         <v>35552</v>
       </c>
       <c r="Z37" s="5">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="AA37" s="8">
-        <v>8136</v>
-      </c>
-      <c r="AB37" s="32"/>
-    </row>
-    <row r="38" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="32" t="s">
-        <v>40</v>
+        <v>23452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="B38" s="5">
         <v>28</v>
@@ -4717,16 +3925,15 @@
         <v>24129</v>
       </c>
       <c r="Z38" s="5">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="AA38" s="8">
-        <v>9128</v>
-      </c>
-      <c r="AB38" s="32"/>
-    </row>
-    <row r="39" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="32" t="s">
-        <v>41</v>
+        <v>12177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="B39" s="5">
         <v>22</v>
@@ -4801,16 +4008,15 @@
         <v>36695</v>
       </c>
       <c r="Z39" s="5">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="AA39" s="8">
-        <v>26996</v>
-      </c>
-      <c r="AB39" s="32"/>
-    </row>
-    <row r="40" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
-        <v>42</v>
+        <v>45349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>220</v>
@@ -4885,16 +4091,15 @@
         <v>293987</v>
       </c>
       <c r="Z40" s="1">
-        <v>546</v>
+        <v>1136</v>
       </c>
       <c r="AA40" s="4">
-        <v>145980</v>
-      </c>
-      <c r="AB40" s="29"/>
-    </row>
-    <row r="41" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="32" t="s">
-        <v>43</v>
+        <v>360839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="B41" s="5">
         <v>54</v>
@@ -4969,16 +4174,15 @@
         <v>17774</v>
       </c>
       <c r="Z41" s="5">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="AA41" s="8">
-        <v>10397</v>
-      </c>
-      <c r="AB41" s="32"/>
-    </row>
-    <row r="42" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="32" t="s">
-        <v>44</v>
+        <v>19122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="B42" s="5">
         <v>3</v>
@@ -5053,16 +4257,15 @@
         <v>7199</v>
       </c>
       <c r="Z42" s="5">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AA42" s="8">
-        <v>22079</v>
-      </c>
-      <c r="AB42" s="32"/>
-    </row>
-    <row r="43" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="32" t="s">
-        <v>45</v>
+        <v>59401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="B43" s="5">
         <v>158</v>
@@ -5137,16 +4340,15 @@
         <v>262581</v>
       </c>
       <c r="Z43" s="5">
-        <v>468</v>
+        <v>990</v>
       </c>
       <c r="AA43" s="8">
-        <v>112283</v>
-      </c>
-      <c r="AB43" s="32"/>
-    </row>
-    <row r="44" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="32" t="s">
-        <v>46</v>
+        <v>272594</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="B44" s="5">
         <v>5</v>
@@ -5221,16 +4423,15 @@
         <v>6433</v>
       </c>
       <c r="Z44" s="5">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AA44" s="8">
-        <v>1221</v>
-      </c>
-      <c r="AB44" s="32"/>
-    </row>
-    <row r="45" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
-        <v>47</v>
+        <v>9722</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14</v>
@@ -5305,16 +4506,15 @@
         <v>18294</v>
       </c>
       <c r="Z45" s="1">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AA45" s="4">
-        <v>10379</v>
-      </c>
-      <c r="AB45" s="29"/>
-    </row>
-    <row r="46" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="32" t="s">
-        <v>48</v>
+        <v>17449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="B46" s="5">
         <v>5</v>
@@ -5389,16 +4589,15 @@
         <v>13234</v>
       </c>
       <c r="Z46" s="5">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AA46" s="8">
-        <v>4871</v>
-      </c>
-      <c r="AB46" s="32"/>
-    </row>
-    <row r="47" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="32" t="s">
-        <v>49</v>
+        <v>8783</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>1</v>
@@ -5472,17 +4671,16 @@
       <c r="Y47" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Z47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="32"/>
-    </row>
-    <row r="48" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="32" t="s">
-        <v>50</v>
+      <c r="Z47" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA47" s="8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="B48" s="5">
         <v>6</v>
@@ -5557,16 +4755,15 @@
         <v>4700</v>
       </c>
       <c r="Z48" s="5">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AA48" s="8">
-        <v>4216</v>
-      </c>
-      <c r="AB48" s="32"/>
-    </row>
-    <row r="49" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="32" t="s">
-        <v>51</v>
+        <v>6556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="B49" s="5">
         <v>3</v>
@@ -5641,16 +4838,15 @@
         <v>360</v>
       </c>
       <c r="Z49" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA49" s="8">
-        <v>1292</v>
-      </c>
-      <c r="AB49" s="32"/>
-    </row>
-    <row r="50" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="29" t="s">
-        <v>52</v>
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>200</v>
@@ -5725,16 +4921,15 @@
         <v>152771</v>
       </c>
       <c r="Z50" s="1">
-        <v>167</v>
+        <v>454</v>
       </c>
       <c r="AA50" s="4">
-        <v>44110</v>
-      </c>
-      <c r="AB50" s="29"/>
-    </row>
-    <row r="51" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="32" t="s">
-        <v>53</v>
+        <v>100377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="B51" s="5">
         <v>27</v>
@@ -5809,16 +5004,15 @@
         <v>2797</v>
       </c>
       <c r="Z51" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AA51" s="8">
-        <v>2827</v>
-      </c>
-      <c r="AB51" s="32"/>
-    </row>
-    <row r="52" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="32" t="s">
-        <v>54</v>
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -5893,16 +5087,15 @@
         <v>6099</v>
       </c>
       <c r="Z52" s="5">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AA52" s="8">
-        <v>236</v>
-      </c>
-      <c r="AB52" s="32"/>
-    </row>
-    <row r="53" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="32" t="s">
-        <v>55</v>
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="B53" s="5">
         <v>117</v>
@@ -5977,16 +5170,15 @@
         <v>92759</v>
       </c>
       <c r="Z53" s="5">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AA53" s="8">
-        <v>13821</v>
-      </c>
-      <c r="AB53" s="32"/>
-    </row>
-    <row r="54" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="32" t="s">
-        <v>56</v>
+        <v>40287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="B54" s="5">
         <v>8</v>
@@ -6061,16 +5253,15 @@
         <v>3506</v>
       </c>
       <c r="Z54" s="5">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="AA54" s="8">
-        <v>2343</v>
-      </c>
-      <c r="AB54" s="32"/>
-    </row>
-    <row r="55" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="32" t="s">
-        <v>57</v>
+        <v>6802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="B55" s="5">
         <v>2</v>
@@ -6145,16 +5336,15 @@
         <v>8083</v>
       </c>
       <c r="Z55" s="5">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AA55" s="8">
-        <v>5899</v>
-      </c>
-      <c r="AB55" s="32"/>
-    </row>
-    <row r="56" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="32" t="s">
-        <v>58</v>
+        <v>14124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="B56" s="5">
         <v>24</v>
@@ -6229,16 +5419,15 @@
         <v>18129</v>
       </c>
       <c r="Z56" s="5">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AA56" s="8">
-        <v>8267</v>
-      </c>
-      <c r="AB56" s="32"/>
-    </row>
-    <row r="57" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="32" t="s">
-        <v>59</v>
+        <v>16390</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="B57" s="5">
         <v>1</v>
@@ -6313,16 +5502,15 @@
         <v>3113</v>
       </c>
       <c r="Z57" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AA57" s="8">
-        <v>2304</v>
-      </c>
-      <c r="AB57" s="32"/>
-    </row>
-    <row r="58" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="32" t="s">
-        <v>60</v>
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="B58" s="5">
         <v>2</v>
@@ -6397,16 +5585,15 @@
         <v>4459</v>
       </c>
       <c r="Z58" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA58" s="8">
-        <v>732</v>
-      </c>
-      <c r="AB58" s="32"/>
-    </row>
-    <row r="59" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="32" t="s">
-        <v>61</v>
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="B59" s="5">
         <v>9</v>
@@ -6481,16 +5668,15 @@
         <v>13826</v>
       </c>
       <c r="Z59" s="5">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AA59" s="8">
-        <v>7681</v>
-      </c>
-      <c r="AB59" s="32"/>
-    </row>
-    <row r="60" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="29" t="s">
-        <v>62</v>
+        <v>11050</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="B60" s="1">
         <v>128</v>
@@ -6565,16 +5751,15 @@
         <v>141029</v>
       </c>
       <c r="Z60" s="1">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="AA60" s="4">
-        <v>43731</v>
-      </c>
-      <c r="AB60" s="29"/>
-    </row>
-    <row r="61" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="32" t="s">
-        <v>63</v>
+        <v>91339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="B61" s="5">
         <v>2</v>
@@ -6649,16 +5834,15 @@
         <v>12844</v>
       </c>
       <c r="Z61" s="5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AA61" s="8">
-        <v>1060</v>
-      </c>
-      <c r="AB61" s="32"/>
-    </row>
-    <row r="62" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="32" t="s">
-        <v>64</v>
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="B62" s="5">
         <v>9</v>
@@ -6733,14 +5917,15 @@
         <v>3704</v>
       </c>
       <c r="Z62" s="5">
-        <v>5</v>
-      </c>
-      <c r="AA62" s="33"/>
-      <c r="AB62" s="32"/>
-    </row>
-    <row r="63" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="32" t="s">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="AA62" s="36">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="B63" s="5">
         <v>22</v>
@@ -6815,16 +6000,15 @@
         <v>15979</v>
       </c>
       <c r="Z63" s="5">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="AA63" s="8">
-        <v>5391</v>
-      </c>
-      <c r="AB63" s="32"/>
-    </row>
-    <row r="64" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="32" t="s">
-        <v>66</v>
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="B64" s="5">
         <v>18</v>
@@ -6899,16 +6083,15 @@
         <v>20122</v>
       </c>
       <c r="Z64" s="5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AA64" s="8">
-        <v>7735</v>
-      </c>
-      <c r="AB64" s="32"/>
-    </row>
-    <row r="65" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="32" t="s">
-        <v>67</v>
+        <v>18162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="B65" s="5">
         <v>73</v>
@@ -6983,16 +6166,15 @@
         <v>80176</v>
       </c>
       <c r="Z65" s="5">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="AA65" s="8">
-        <v>22978</v>
-      </c>
-      <c r="AB65" s="32"/>
-    </row>
-    <row r="66" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="32" t="s">
-        <v>68</v>
+        <v>41905</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="B66" s="5">
         <v>4</v>
@@ -7067,16 +6249,15 @@
         <v>8204</v>
       </c>
       <c r="Z66" s="5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AA66" s="8">
-        <v>5089</v>
-      </c>
-      <c r="AB66" s="32"/>
-    </row>
-    <row r="67" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="29" t="s">
-        <v>69</v>
+        <v>12792</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="B67" s="1">
         <v>668</v>
@@ -7151,16 +6332,15 @@
         <v>350617</v>
       </c>
       <c r="Z67" s="1">
-        <v>402</v>
+        <v>910</v>
       </c>
       <c r="AA67" s="4">
-        <v>252510</v>
-      </c>
-      <c r="AB67" s="29"/>
-    </row>
-    <row r="68" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="32" t="s">
-        <v>70</v>
+        <v>564134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B68" s="5">
         <v>360</v>
@@ -7235,16 +6415,15 @@
         <v>80143</v>
       </c>
       <c r="Z68" s="5">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="AA68" s="8">
-        <v>144541</v>
-      </c>
-      <c r="AB68" s="32"/>
-    </row>
-    <row r="69" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="32" t="s">
-        <v>71</v>
+        <v>329491</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="B69" s="5">
         <v>50</v>
@@ -7319,16 +6498,15 @@
         <v>11118</v>
       </c>
       <c r="Z69" s="5">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="AA69" s="8">
-        <v>5240</v>
-      </c>
-      <c r="AB69" s="32"/>
-    </row>
-    <row r="70" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="32" t="s">
-        <v>72</v>
+        <v>12922</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="B70" s="5">
         <v>93</v>
@@ -7403,16 +6581,15 @@
         <v>81517</v>
       </c>
       <c r="Z70" s="5">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c r="AA70" s="8">
-        <v>35712</v>
-      </c>
-      <c r="AB70" s="32"/>
-    </row>
-    <row r="71" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="32" t="s">
-        <v>73</v>
+        <v>82644</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="B71" s="5">
         <v>1</v>
@@ -7487,16 +6664,15 @@
         <v>4193</v>
       </c>
       <c r="Z71" s="5">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AA71" s="8">
-        <v>5163</v>
-      </c>
-      <c r="AB71" s="32"/>
-    </row>
-    <row r="72" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="32" t="s">
-        <v>74</v>
+        <v>9126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>1</v>
@@ -7571,16 +6747,15 @@
         <v>16073</v>
       </c>
       <c r="Z72" s="5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AA72" s="8">
-        <v>5046</v>
-      </c>
-      <c r="AB72" s="32"/>
-    </row>
-    <row r="73" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="32" t="s">
-        <v>75</v>
+        <v>15416</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B73" s="5">
         <v>164</v>
@@ -7655,16 +6830,15 @@
         <v>146581</v>
       </c>
       <c r="Z73" s="5">
-        <v>155</v>
+        <v>334</v>
       </c>
       <c r="AA73" s="8">
-        <v>54315</v>
-      </c>
-      <c r="AB73" s="32"/>
-    </row>
-    <row r="74" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="32" t="s">
-        <v>76</v>
+        <v>110280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>1</v>
@@ -7739,16 +6913,15 @@
         <v>10992</v>
       </c>
       <c r="Z74" s="5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AA74" s="8">
-        <v>2493</v>
-      </c>
-      <c r="AB74" s="32"/>
-    </row>
-    <row r="75" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="29" t="s">
-        <v>77</v>
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="B75" s="1">
         <v>91</v>
@@ -7823,16 +6996,15 @@
         <v>233511</v>
       </c>
       <c r="Z75" s="1">
-        <v>202</v>
+        <v>376</v>
       </c>
       <c r="AA75" s="4">
-        <v>142578</v>
-      </c>
-      <c r="AB75" s="29"/>
-    </row>
-    <row r="76" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="32" t="s">
-        <v>78</v>
+        <v>210592</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B76" s="5">
         <v>44</v>
@@ -7907,16 +7079,15 @@
         <v>61758</v>
       </c>
       <c r="Z76" s="5">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="AA76" s="8">
-        <v>54860</v>
-      </c>
-      <c r="AB76" s="32"/>
-    </row>
-    <row r="77" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="32" t="s">
-        <v>79</v>
+        <v>105263</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="B77" s="5">
         <v>6</v>
@@ -7991,16 +7162,15 @@
         <v>109945</v>
       </c>
       <c r="Z77" s="5">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AA77" s="8">
-        <v>61134</v>
-      </c>
-      <c r="AB77" s="32"/>
-    </row>
-    <row r="78" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="32" t="s">
-        <v>80</v>
+        <v>66202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="B78" s="5">
         <v>11</v>
@@ -8075,16 +7245,15 @@
         <v>24298</v>
       </c>
       <c r="Z78" s="5">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AA78" s="8">
-        <v>7531</v>
-      </c>
-      <c r="AB78" s="32"/>
-    </row>
-    <row r="79" spans="1:28" s="24" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="34" t="s">
-        <v>81</v>
+        <v>10724</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" s="18" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="B79" s="9">
         <v>30</v>
@@ -8159,704 +7328,41 @@
         <v>37510</v>
       </c>
       <c r="Z79" s="9">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AA79" s="12">
-        <v>19053</v>
-      </c>
-      <c r="AB79" s="34"/>
-    </row>
-    <row r="80" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="36"/>
-      <c r="Q80" s="36"/>
-      <c r="R80" s="36"/>
-      <c r="S80" s="36"/>
-      <c r="T80" s="36"/>
-      <c r="U80" s="36"/>
-      <c r="V80" s="36"/>
-      <c r="W80" s="36"/>
-      <c r="X80" s="36"/>
-      <c r="Y80" s="36"/>
-      <c r="Z80" s="36"/>
-      <c r="AA80" s="36"/>
-    </row>
-    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1077" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1078" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1232" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1387" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1542" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1543" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1697" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1698" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1852" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1853" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2007" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2008" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2317" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2472" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2627" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2628" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2782" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2783" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2937" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2938" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3092" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3093" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3247" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3402" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3558" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3712" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3713" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3867" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3868" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4023" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4332" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4487" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4642" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4643" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4797" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4798" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4952" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4953" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5262" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5417" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5573" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5727" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5728" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5882" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5883" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6037" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6038" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6347" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6502" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6657" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6658" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6812" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6813" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6967" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6968" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7277" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7432" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7587" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7588" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7742" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7743" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7897" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7898" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8052" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8053" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8362" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8517" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8518" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8672" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8673" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8827" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8828" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8982" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8983" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9447" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9602" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9603" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9757" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9758" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9912" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9913" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10067" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10068" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10222" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10377" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10532" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10533" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10687" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10688" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10842" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10843" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10997" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10998" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11152" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11307" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11462" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11617" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11618" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11772" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11773" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11927" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11928" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12082" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12083" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12237" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12392" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12548" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12702" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12703" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12857" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12858" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13012" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13013" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13322" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13477" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13632" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13633" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13787" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13788" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13942" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13943" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14097" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14098" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14252" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14407" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14563" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14717" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14718" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14872" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14873" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15027" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15028" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15337" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15492" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15647" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15648" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15802" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15803" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15957" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15958" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16267" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16422" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16577" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16578" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16732" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16733" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16887" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16888" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17042" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17043" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17352" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17507" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17662" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17663" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17817" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17818" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17972" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17973" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18282" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18437" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18592" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18593" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18747" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18748" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18902" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18903" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19057" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19058" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19367" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19522" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19523" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19677" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19678" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19832" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19833" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19987" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19988" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20142" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20297" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20452" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20607" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20608" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20762" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20763" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20917" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20918" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21072" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21073" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21227" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21382" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21537" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21538" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21692" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21693" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21847" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21848" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22002" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22003" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22157" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22312" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22467" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22622" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22623" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22777" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22778" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22932" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22933" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23087" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23088" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23242" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23397" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23552" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23553" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23707" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23708" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23862" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23863" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24017" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24018" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24172" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24327" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24482" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24637" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24638" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24792" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24793" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24947" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24948" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25412" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25568" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25722" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25723" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25877" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25878" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26032" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26033" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26342" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26497" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26652" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26653" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26807" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26808" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26962" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26963" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27272" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27427" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27582" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27583" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27737" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27738" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27892" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27893" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28047" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28048" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28202" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28357" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28512" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28667" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28668" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28822" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28823" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28977" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28978" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29132" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29287" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29442" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29597" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29598" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29752" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29753" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29907" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29908" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30062" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30063" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30217" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30372" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30527" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30528" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30682" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30683" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30837" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30838" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30992" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30993" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31147" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31302" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31457" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31612" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31613" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31767" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31768" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31922" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31923" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32077" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32078" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32232" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32387" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32542" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32543" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32697" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32698" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32852" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32853" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33007" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33008" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33317" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33472" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33627" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33628" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33782" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33783" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33937" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33938" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34092" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34093" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34247" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34402" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34558" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34712" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34713" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34867" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34868" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35023" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35332" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35487" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35642" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35643" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35797" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35798" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35952" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35953" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36262" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36417" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36573" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36727" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36728" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36882" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36883" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37037" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37038" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37347" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37502" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37657" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37658" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37812" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37813" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37967" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37968" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38277" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38432" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38587" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38588" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38742" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38743" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38897" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38898" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39052" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39053" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39362" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39517" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39518" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39672" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39673" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39827" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39828" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39982" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39983" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40447" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40602" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40603" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40757" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40758" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40912" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40913" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41067" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41068" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41222" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41377" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41532" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41533" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41687" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41688" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41842" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41843" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41997" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41998" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42152" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42307" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42462" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42617" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42618" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42772" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42773" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42927" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42928" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43082" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43083" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43237" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43392" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43548" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43702" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43703" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43857" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43858" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44012" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44013" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44322" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44477" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44632" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44633" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44787" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44788" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44942" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44943" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45097" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45098" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45252" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45407" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45563" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45717" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45718" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45872" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45873" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46027" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46028" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46337" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46492" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46647" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46648" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46802" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46803" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46957" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46958" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47267" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47422" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47577" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47578" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47732" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47733" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47887" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47888" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48042" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48043" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48352" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48507" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48662" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48663" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48817" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48818" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48972" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48973" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49282" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49437" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49592" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49593" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49747" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49748" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49902" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49903" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50057" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50058" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50367" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50522" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50523" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50677" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50678" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50832" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50833" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50987" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50988" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51142" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>28403</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="31"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="28"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="28"/>
+      <c r="U80" s="28"/>
+      <c r="V80" s="28"/>
+      <c r="W80" s="28"/>
+      <c r="X80" s="28"/>
+      <c r="Y80" s="28"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="R3:S3"/>
